--- a/database/events.xlsx
+++ b/database/events.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elijahkennard/Disinformation_Game/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elijahkennard/Disinformation_Game/Operation_Otter/OperationOtter/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86FEF2A-7EFF-BF4F-A96C-A89D9E3600D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D88D80-33AC-FA43-B452-C0B33A044590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15940" xr2:uid="{242D5470-7815-0D41-8AEA-36AA1AAEA9FF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Event Type</t>
   </si>
@@ -67,9 +67,6 @@
     <t>REQ</t>
   </si>
   <si>
-    <t>Image Gen ID</t>
-  </si>
-  <si>
     <t>EFFECTS</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>Generate photos of children sleeping in flooded areas and tweet: "I can't believe mr.opponent would deny these children the aid they need. SMH #OpponentHatesKids</t>
   </si>
   <si>
-    <t>Image GEN ID</t>
-  </si>
-  <si>
     <t>CONS</t>
   </si>
   <si>
@@ -113,6 +107,12 @@
   </si>
   <si>
     <t>END</t>
+  </si>
+  <si>
+    <t>TECH12</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -175,9 +175,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,7 +215,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -321,7 +321,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,7 +474,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,10 +535,10 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="M2" s="1">
         <v>100</v>
@@ -555,22 +555,22 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3" s="1">
         <v>300</v>
@@ -605,22 +605,22 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -634,11 +634,11 @@
       <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="1">
-        <v>0</v>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="1">
         <v>1000</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/database/events.xlsx
+++ b/database/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elijahkennard/Disinformation_Game/Operation_Otter/OperationOtter/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D88D80-33AC-FA43-B452-C0B33A044590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A3E00E-3745-4747-BCCA-8347A4F86C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="15940" xr2:uid="{242D5470-7815-0D41-8AEA-36AA1AAEA9FF}"/>
   </bookViews>
@@ -37,15 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
-    <t>Event Type</t>
-  </si>
-  <si>
-    <t>Q_Prompt</t>
-  </si>
-  <si>
-    <t>Option Prompts</t>
-  </si>
-  <si>
     <t>War</t>
   </si>
   <si>
@@ -113,6 +104,15 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>Q_PROMPT</t>
+  </si>
+  <si>
+    <t>EVENT TYPE</t>
+  </si>
+  <si>
+    <t>OPTION PROMPTS</t>
   </si>
 </sst>
 </file>
@@ -474,20 +474,20 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -505,46 +505,46 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M2" s="1">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N2" s="1">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="O2" s="1">
         <v>50</v>
@@ -555,25 +555,25 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M3" s="1">
         <v>300</v>
@@ -605,40 +605,40 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M4" s="1">
         <v>1000</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
